--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF83F32-F5BD-034C-8D5A-BE70C4567279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB1D23-3D01-394F-941C-8A0FEA81FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
   <si>
     <t>header</t>
   </si>
@@ -582,47 +582,47 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="200" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -975,17 +975,17 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="F5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="30"/>
       <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1018,23 +1018,23 @@
       <c r="O6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="36"/>
-      <c r="S6" s="25" t="s">
+      <c r="R6" s="35"/>
+      <c r="S6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="25"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="25"/>
-      <c r="AA6" s="26" t="s">
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="28"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="26"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -1063,7 +1063,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
       <c r="O7" s="5"/>
-      <c r="R7" s="37"/>
+      <c r="R7" s="36"/>
       <c r="S7" s="1">
         <v>1</v>
       </c>
@@ -1088,10 +1088,10 @@
       <c r="Z7" s="1">
         <v>8</v>
       </c>
-      <c r="AA7" s="29"/>
-      <c r="AB7" s="30"/>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="31"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="28"/>
+      <c r="AC7" s="28"/>
+      <c r="AD7" s="29"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1282,15 +1282,15 @@
       <c r="U10" s="1">
         <v>0</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="W10" s="25" t="s">
+      <c r="V10" s="1">
+        <v>0</v>
+      </c>
+      <c r="W10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
       <c r="AA10" s="1" t="s">
         <v>82</v>
       </c>
@@ -1342,12 +1342,12 @@
       <c r="V11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="25" t="s">
+      <c r="W11" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
       <c r="AA11" s="1" t="s">
         <v>79</v>
       </c>
@@ -1362,35 +1362,35 @@
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="35"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="33"/>
       <c r="R12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="25" t="s">
+      <c r="S12" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25" t="s">
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
       <c r="AA12" s="1" t="s">
         <v>83</v>
       </c>
@@ -1428,18 +1428,18 @@
       <c r="R13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25" t="s">
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
       <c r="AA13" s="1" t="s">
         <v>83</v>
       </c>
@@ -1477,14 +1477,14 @@
       <c r="R14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="25"/>
-      <c r="Y14" s="25"/>
-      <c r="Z14" s="25"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
       <c r="AA14" s="1" t="s">
         <v>85</v>
       </c>
@@ -1499,23 +1499,28 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S14:Z14"/>
     <mergeCell ref="AA6:AD7"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B12:O12"/>
@@ -1525,11 +1530,6 @@
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S14:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DB1D23-3D01-394F-941C-8A0FEA81FD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10714EA7-E942-3D4A-B9B2-72402DCA606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
   <si>
     <t>header</t>
   </si>
@@ -280,9 +280,6 @@
     <t>s0 = from origin</t>
   </si>
   <si>
-    <t>sign 0(+) 1(-)</t>
-  </si>
-  <si>
     <t>s 0(+) 1(-)</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
   </si>
   <si>
     <t>checksum = ~( (sum(parameter) + length + instruction) &amp; 0xFF )</t>
-  </si>
-  <si>
-    <t>signed</t>
   </si>
   <si>
     <t>t</t>
@@ -517,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -624,6 +618,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView tabSelected="1" topLeftCell="P5" zoomScale="200" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -953,8 +948,8 @@
     <col min="19" max="26" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
@@ -990,7 +985,7 @@
         <v>4</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.2">
@@ -1030,7 +1025,7 @@
       <c r="Y6" s="34"/>
       <c r="Z6" s="34"/>
       <c r="AA6" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AB6" s="25"/>
       <c r="AC6" s="25"/>
@@ -1292,7 +1287,7 @@
       <c r="Y10" s="34"/>
       <c r="Z10" s="34"/>
       <c r="AA10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AB10" s="1" t="s">
         <v>73</v>
@@ -1336,18 +1331,24 @@
       <c r="T11" s="1">
         <v>0</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="V11" s="1" t="s">
+      <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0</v>
+      </c>
+      <c r="W11" s="38">
+        <v>0</v>
+      </c>
+      <c r="X11" s="38">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z11" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="W11" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
       <c r="AA11" s="1" t="s">
         <v>79</v>
       </c>
@@ -1355,10 +1356,7 @@
         <v>80</v>
       </c>
       <c r="AC11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
@@ -1392,10 +1390,10 @@
       <c r="Y12" s="34"/>
       <c r="Z12" s="34"/>
       <c r="AA12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AB12" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -1441,10 +1439,10 @@
       <c r="Y13" s="34"/>
       <c r="Z13" s="34"/>
       <c r="AA13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB13" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -1486,21 +1484,21 @@
       <c r="Y14" s="34"/>
       <c r="Z14" s="34"/>
       <c r="AA14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB14" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AB14" s="1" t="s">
+      <c r="AC14" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="AC14" s="1" t="s">
+      <c r="AD14" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
@@ -1508,14 +1506,14 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="S13:V13"/>
@@ -1526,7 +1524,6 @@
     <mergeCell ref="B12:O12"/>
     <mergeCell ref="S6:Z6"/>
     <mergeCell ref="W10:Z10"/>
-    <mergeCell ref="W11:Z11"/>
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="R6:R7"/>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10714EA7-E942-3D4A-B9B2-72402DCA606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39081069-6AEC-0E45-B0F5-BCACD75E43B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>header</t>
   </si>
@@ -311,12 +311,6 @@
   </si>
   <si>
     <t>checksum = ~( (sum(parameter) + length + instruction) &amp; 0xFF )</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>t(0) catesian t(1) joint state</t>
   </si>
 </sst>
 </file>
@@ -935,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P5" zoomScale="200" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +942,7 @@
     <col min="19" max="26" width="2.1640625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.5" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1343,8 +1337,8 @@
       <c r="X11" s="38">
         <v>0</v>
       </c>
-      <c r="Y11" s="38" t="s">
-        <v>92</v>
+      <c r="Y11" s="38">
+        <v>0</v>
       </c>
       <c r="Z11" s="38" t="s">
         <v>72</v>
@@ -1355,9 +1349,7 @@
       <c r="AB11" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39081069-6AEC-0E45-B0F5-BCACD75E43B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EECDE1-05E2-1B43-8DF1-F5D10F81A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" activeTab="1" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="command pack" sheetId="1" r:id="rId1"/>
     <sheet name="ack err" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
   <si>
     <t>header</t>
   </si>
@@ -184,9 +185,6 @@
     <t>request Chessboard encoder</t>
   </si>
   <si>
-    <t>0xFE</t>
-  </si>
-  <si>
     <t>ang_h</t>
   </si>
   <si>
@@ -223,12 +221,6 @@
     <t>checksum error</t>
   </si>
   <si>
-    <t>0xEA</t>
-  </si>
-  <si>
-    <t>0xEB</t>
-  </si>
-  <si>
     <t>bits</t>
   </si>
   <si>
@@ -311,6 +303,39 @@
   </si>
   <si>
     <t>checksum = ~( (sum(parameter) + length + instruction) &amp; 0xFF )</t>
+  </si>
+  <si>
+    <t>0x51</t>
+  </si>
+  <si>
+    <t>0x52</t>
+  </si>
+  <si>
+    <t>manipulators position</t>
+  </si>
+  <si>
+    <t>0xA5</t>
+  </si>
+  <si>
+    <t>manipulator position</t>
+  </si>
+  <si>
+    <t>0xA6</t>
+  </si>
+  <si>
+    <t>0x60</t>
+  </si>
+  <si>
+    <t>J2_h</t>
+  </si>
+  <si>
+    <t>J3_h</t>
+  </si>
+  <si>
+    <t>0xE1</t>
+  </si>
+  <si>
+    <t>0xE2</t>
   </si>
 </sst>
 </file>
@@ -339,7 +364,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,8 +377,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -501,11 +532,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -570,49 +630,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,12 +1032,12 @@
   <sheetData>
     <row r="4" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:30" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>0</v>
@@ -964,22 +1048,22 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
       <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.2">
@@ -1007,23 +1091,23 @@
       <c r="O6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="35"/>
-      <c r="S6" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="34"/>
-      <c r="Z6" s="34"/>
-      <c r="AA6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="AB6" s="25"/>
-      <c r="AC6" s="25"/>
-      <c r="AD6" s="26"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="28"/>
+      <c r="AD6" s="29"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -1052,7 +1136,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
       <c r="O7" s="5"/>
-      <c r="R7" s="36"/>
+      <c r="R7" s="38"/>
       <c r="S7" s="1">
         <v>1</v>
       </c>
@@ -1077,10 +1161,10 @@
       <c r="Z7" s="1">
         <v>8</v>
       </c>
-      <c r="AA7" s="27"/>
-      <c r="AB7" s="28"/>
-      <c r="AC7" s="28"/>
-      <c r="AD7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="32"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1110,7 +1194,7 @@
       <c r="N8" s="9"/>
       <c r="O8" s="5"/>
       <c r="R8" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="S8" s="1">
         <v>1</v>
@@ -1125,22 +1209,22 @@
         <v>1</v>
       </c>
       <c r="W8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="X8" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Y8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
@@ -1185,7 +1269,7 @@
       </c>
       <c r="O9" s="3"/>
       <c r="R9" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="S9" s="1">
         <v>1</v>
@@ -1200,22 +1284,22 @@
         <v>1</v>
       </c>
       <c r="W9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="AA9" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -1274,17 +1358,17 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="34" t="s">
+      <c r="W10" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
       <c r="AA10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -1331,61 +1415,61 @@
       <c r="V11" s="1">
         <v>0</v>
       </c>
-      <c r="W11" s="38">
+      <c r="W11" s="24">
         <v>0</v>
       </c>
-      <c r="X11" s="38">
+      <c r="X11" s="24">
         <v>0</v>
       </c>
-      <c r="Y11" s="38">
+      <c r="Y11" s="24">
         <v>0</v>
       </c>
-      <c r="Z11" s="38" t="s">
-        <v>72</v>
+      <c r="Z11" s="24" t="s">
+        <v>69</v>
       </c>
       <c r="AA11" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="33"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="36"/>
       <c r="R12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
+      <c r="S12" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
       <c r="AA12" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
@@ -1399,12 +1483,12 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="4" t="s">
+      <c r="G13" s="44" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="7"/>
@@ -1418,23 +1502,23 @@
       <c r="R13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="34"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
+      <c r="S13" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
       <c r="AA13" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
@@ -1446,15 +1530,17 @@
       <c r="C14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="E14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="44" t="s">
         <v>50</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="8"/>
@@ -1467,50 +1553,83 @@
       <c r="R14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
       <c r="AA14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="AB14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AD14" s="1" t="s">
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="B15" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="K15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="L15" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S14:Z14"/>
     <mergeCell ref="AA6:AD7"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B12:O12"/>
@@ -1519,6 +1638,11 @@
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S14:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1528,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB565AE-13CD-0640-BA57-0044457625A5}">
   <dimension ref="B3:O18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1540,7 +1664,7 @@
   <sheetData>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="22"/>
       <c r="D3" s="22"/>
@@ -1554,7 +1678,7 @@
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="23" t="s">
         <v>0</v>
@@ -1577,7 +1701,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
@@ -1591,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -1605,7 +1729,7 @@
         <v>7</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -1619,7 +1743,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -1633,7 +1757,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -1647,7 +1771,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -1667,7 +1791,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -1681,12 +1805,26 @@
         <v>7</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>49</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C15" s="22"/>
       <c r="D15" s="22"/>
@@ -1694,7 +1832,7 @@
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>0</v>
@@ -1708,7 +1846,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" s="23" t="s">
         <v>6</v>
@@ -1717,12 +1855,12 @@
         <v>7</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>6</v>
@@ -1731,7 +1869,7 @@
         <v>7</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EECDE1-05E2-1B43-8DF1-F5D10F81A9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD74C3BD-78F0-514E-B757-2EF06C987E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" activeTab="1" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="command pack" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
   <si>
     <t>header</t>
   </si>
@@ -336,6 +336,30 @@
   </si>
   <si>
     <t>0xE2</t>
+  </si>
+  <si>
+    <t>J1_outofreach</t>
+  </si>
+  <si>
+    <t>0x1E</t>
+  </si>
+  <si>
+    <t>0x2E</t>
+  </si>
+  <si>
+    <t>0x3E</t>
+  </si>
+  <si>
+    <t>0x4E</t>
+  </si>
+  <si>
+    <t>j2_outofreach</t>
+  </si>
+  <si>
+    <t>j3_outofreach</t>
+  </si>
+  <si>
+    <t>j4_outofreach</t>
   </si>
 </sst>
 </file>
@@ -565,7 +589,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -631,70 +655,73 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1048,17 +1075,17 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
       <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1091,23 +1118,23 @@
       <c r="O6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="37"/>
-      <c r="S6" s="26" t="s">
+      <c r="R6" s="44"/>
+      <c r="S6" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="27" t="s">
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+      <c r="W6" s="43"/>
+      <c r="X6" s="43"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="43"/>
+      <c r="AA6" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="AB6" s="28"/>
-      <c r="AC6" s="28"/>
-      <c r="AD6" s="29"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="35"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -1136,7 +1163,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
       <c r="O7" s="5"/>
-      <c r="R7" s="38"/>
+      <c r="R7" s="45"/>
       <c r="S7" s="1">
         <v>1</v>
       </c>
@@ -1161,10 +1188,10 @@
       <c r="Z7" s="1">
         <v>8</v>
       </c>
-      <c r="AA7" s="30"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="32"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="37"/>
+      <c r="AC7" s="37"/>
+      <c r="AD7" s="38"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1358,12 +1385,12 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="26" t="s">
+      <c r="W10" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
+      <c r="X10" s="43"/>
+      <c r="Y10" s="43"/>
+      <c r="Z10" s="43"/>
       <c r="AA10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1436,35 +1463,35 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="36"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="42"/>
       <c r="R12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="26" t="s">
+      <c r="S12" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26" t="s">
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43"/>
+      <c r="W12" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
+      <c r="X12" s="43"/>
+      <c r="Y12" s="43"/>
+      <c r="Z12" s="43"/>
       <c r="AA12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1485,10 +1512,10 @@
       <c r="E13" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="30" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="7"/>
@@ -1502,18 +1529,18 @@
       <c r="R13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="26" t="s">
+      <c r="S13" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26" t="s">
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
       <c r="AA13" s="1" t="s">
         <v>79</v>
       </c>
@@ -1536,10 +1563,10 @@
       <c r="E14" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G14" s="44" t="s">
+      <c r="G14" s="30" t="s">
         <v>50</v>
       </c>
       <c r="H14" s="7"/>
@@ -1553,14 +1580,14 @@
       <c r="R14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="43"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="43"/>
+      <c r="Z14" s="43"/>
       <c r="AA14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1575,61 +1602,66 @@
       </c>
     </row>
     <row r="15" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="25" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="46" t="s">
+      <c r="H15" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="I15" s="46" t="s">
+      <c r="I15" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="46" t="s">
+      <c r="K15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="46" t="s">
+      <c r="L15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="M15" s="46" t="s">
+      <c r="M15" s="32" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S14:Z14"/>
     <mergeCell ref="AA6:AD7"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B12:O12"/>
@@ -1638,11 +1670,6 @@
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S14:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1650,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB565AE-13CD-0640-BA57-0044457625A5}">
-  <dimension ref="B3:O18"/>
+  <dimension ref="B3:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1809,16 +1836,16 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="42" t="s">
+      <c r="C14" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="27" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1870,6 +1897,62 @@
       </c>
       <c r="E18" s="23" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD74C3BD-78F0-514E-B757-2EF06C987E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212D8C12-26B6-8C43-BCCC-B3910C13DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
   <si>
     <t>header</t>
   </si>
@@ -360,6 +360,9 @@
   </si>
   <si>
     <t>j4_outofreach</t>
+  </si>
+  <si>
+    <t>f1</t>
   </si>
 </sst>
 </file>
@@ -679,50 +682,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="150" workbookViewId="0">
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1075,17 +1078,17 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
       <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1118,23 +1121,23 @@
       <c r="O6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="44"/>
-      <c r="S6" s="43" t="s">
+      <c r="R6" s="46"/>
+      <c r="S6" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="43"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="33" t="s">
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="34"/>
-      <c r="AD6" s="35"/>
+      <c r="AB6" s="37"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="38"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -1163,7 +1166,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
       <c r="O7" s="5"/>
-      <c r="R7" s="45"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="1">
         <v>1</v>
       </c>
@@ -1188,10 +1191,10 @@
       <c r="Z7" s="1">
         <v>8</v>
       </c>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="37"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="38"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="40"/>
+      <c r="AC7" s="40"/>
+      <c r="AD7" s="41"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1385,12 +1388,12 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="43" t="s">
+      <c r="W10" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="43"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
       <c r="AA10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1448,8 +1451,8 @@
       <c r="X11" s="24">
         <v>0</v>
       </c>
-      <c r="Y11" s="24">
-        <v>0</v>
+      <c r="Y11" s="24" t="s">
+        <v>108</v>
       </c>
       <c r="Z11" s="24" t="s">
         <v>69</v>
@@ -1463,35 +1466,35 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="45"/>
       <c r="R12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="43" t="s">
+      <c r="S12" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="T12" s="43"/>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43"/>
-      <c r="W12" s="43" t="s">
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="43"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
       <c r="AA12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1529,18 +1532,18 @@
       <c r="R13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="43" t="s">
+      <c r="S13" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
-      <c r="W13" s="43" t="s">
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
       <c r="AA13" s="1" t="s">
         <v>79</v>
       </c>
@@ -1580,14 +1583,14 @@
       <c r="R14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
       <c r="AA14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1640,28 +1643,23 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S14:Z14"/>
     <mergeCell ref="AA6:AD7"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B12:O12"/>
@@ -1670,6 +1668,11 @@
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="R6:R7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S14:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1900,58 +1903,58 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="47" t="s">
+      <c r="C19" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="33" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="47" t="s">
+      <c r="C20" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="33" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="33" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="47" t="s">
+      <c r="C22" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="47" t="s">
+      <c r="E22" s="33" t="s">
         <v>104</v>
       </c>
     </row>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212D8C12-26B6-8C43-BCCC-B3910C13DBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685A991-1B7F-C346-A756-CD1519ABFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I3" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pienapat/Documents/GitHub/Manipulator_lowlevel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A685A991-1B7F-C346-A756-CD1519ABFA9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{294D4A26-5D72-DE4C-AB7F-F163F39BAF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15760" activeTab="1" xr2:uid="{521507E1-042C-C644-B1F6-1B5E6F45BA0E}"/>
   </bookViews>
   <sheets>
     <sheet name="command pack" sheetId="1" r:id="rId1"/>
-    <sheet name="ack err" sheetId="2" r:id="rId2"/>
+    <sheet name="maptest" sheetId="3" r:id="rId2"/>
+    <sheet name="ack err" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="118">
   <si>
     <t>header</t>
   </si>
@@ -363,6 +364,33 @@
   </si>
   <si>
     <t>f1</t>
+  </si>
+  <si>
+    <t>num</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y </t>
+  </si>
+  <si>
+    <t>jointsetpoint (IPK(tasksetpoint))</t>
+  </si>
+  <si>
+    <t>Taskspace (FPK(joinsetpoint))</t>
+  </si>
+  <si>
+    <t>assume joint 3 = 0 (ไมเลื่อนลง)</t>
+  </si>
+  <si>
+    <t>tasksetpoint (From map function)</t>
+  </si>
+  <si>
+    <t>d = 360 mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ไม่สามารถไปได้ ถ้า joint 4 มี oreintation เหมือนกระดาน </t>
+  </si>
+  <si>
+    <t>chessboard posiiotn = 0 rad</t>
   </si>
 </sst>
 </file>
@@ -391,7 +419,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -410,6 +438,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -592,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -685,47 +725,65 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1043,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA521C99-CB82-014E-905E-D1830F903609}">
   <dimension ref="B4:AD18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1078,17 +1136,17 @@
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1121,23 +1179,23 @@
       <c r="O6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="46"/>
-      <c r="S6" s="35" t="s">
+      <c r="R6" s="45"/>
+      <c r="S6" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="35"/>
-      <c r="AA6" s="36" t="s">
+      <c r="T6" s="44"/>
+      <c r="U6" s="44"/>
+      <c r="V6" s="44"/>
+      <c r="W6" s="44"/>
+      <c r="X6" s="44"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="AB6" s="37"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="38"/>
+      <c r="AB6" s="35"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="36"/>
     </row>
     <row r="7" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
@@ -1166,7 +1224,7 @@
       <c r="M7" s="11"/>
       <c r="N7" s="12"/>
       <c r="O7" s="5"/>
-      <c r="R7" s="47"/>
+      <c r="R7" s="46"/>
       <c r="S7" s="1">
         <v>1</v>
       </c>
@@ -1191,10 +1249,10 @@
       <c r="Z7" s="1">
         <v>8</v>
       </c>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="40"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="41"/>
+      <c r="AA7" s="37"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="39"/>
     </row>
     <row r="8" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
@@ -1388,12 +1446,12 @@
       <c r="V10" s="1">
         <v>0</v>
       </c>
-      <c r="W10" s="35" t="s">
+      <c r="W10" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="44"/>
+      <c r="Z10" s="44"/>
       <c r="AA10" s="1" t="s">
         <v>78</v>
       </c>
@@ -1466,35 +1524,35 @@
       <c r="AC11" s="1"/>
     </row>
     <row r="12" spans="2:30" x14ac:dyDescent="0.2">
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="45"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="43"/>
       <c r="R12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="35" t="s">
+      <c r="S12" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="35" t="s">
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="X12" s="35"/>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="35"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
       <c r="AA12" s="1" t="s">
         <v>79</v>
       </c>
@@ -1532,18 +1590,18 @@
       <c r="R13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="S13" s="35" t="s">
+      <c r="S13" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="35" t="s">
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
       <c r="AA13" s="1" t="s">
         <v>79</v>
       </c>
@@ -1583,14 +1641,14 @@
       <c r="R14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
+      <c r="W14" s="44"/>
+      <c r="X14" s="44"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="44"/>
       <c r="AA14" s="1" t="s">
         <v>81</v>
       </c>
@@ -1643,23 +1701,28 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="W13:Z13"/>
+    <mergeCell ref="S14:Z14"/>
     <mergeCell ref="AA6:AD7"/>
     <mergeCell ref="F5:N5"/>
     <mergeCell ref="B12:O12"/>
@@ -1668,17 +1731,512 @@
     <mergeCell ref="S12:V12"/>
     <mergeCell ref="W12:Z12"/>
     <mergeCell ref="R6:R7"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="S13:V13"/>
-    <mergeCell ref="W13:Z13"/>
-    <mergeCell ref="S14:Z14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19FC7F29-6FA8-8E4C-9F5C-372FE8030054}">
+  <dimension ref="A2:Q12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="Q2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3" s="48"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>175</v>
+      </c>
+      <c r="C4" s="3">
+        <v>175</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>535</v>
+      </c>
+      <c r="F4" s="3">
+        <v>175</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="I4" s="3">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>535</v>
+      </c>
+      <c r="N4" s="3">
+        <v>175</v>
+      </c>
+      <c r="O4" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>175</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-25</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>535</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-25</v>
+      </c>
+      <c r="G5" s="3">
+        <v>100</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I5" s="3">
+        <v>-1.33</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>535</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-24.9</v>
+      </c>
+      <c r="O5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <v>175</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-175</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>535</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-175</v>
+      </c>
+      <c r="G6" s="3">
+        <v>100</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1.1499999999999999</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>535</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-175</v>
+      </c>
+      <c r="O6" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>125</v>
+      </c>
+      <c r="C7" s="3">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>485</v>
+      </c>
+      <c r="F7" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="G7" s="3">
+        <v>100</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.76</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1.61</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>485</v>
+      </c>
+      <c r="N7" s="3">
+        <v>24.9</v>
+      </c>
+      <c r="O7" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>28</v>
+      </c>
+      <c r="B8" s="50">
+        <v>25</v>
+      </c>
+      <c r="C8" s="50">
+        <v>25</v>
+      </c>
+      <c r="D8" s="50">
+        <v>0</v>
+      </c>
+      <c r="E8" s="50">
+        <v>385</v>
+      </c>
+      <c r="F8" s="50">
+        <v>25</v>
+      </c>
+      <c r="G8" s="50">
+        <v>100</v>
+      </c>
+      <c r="H8" s="50">
+        <v>0.96</v>
+      </c>
+      <c r="I8" s="50">
+        <v>-2.06</v>
+      </c>
+      <c r="J8" s="50">
+        <v>0</v>
+      </c>
+      <c r="K8" s="50">
+        <v>1.06</v>
+      </c>
+      <c r="L8" s="50">
+        <v>0</v>
+      </c>
+      <c r="M8" s="50">
+        <v>385</v>
+      </c>
+      <c r="N8" s="50">
+        <v>24.9</v>
+      </c>
+      <c r="O8" s="50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>33</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-25</v>
+      </c>
+      <c r="C9" s="3">
+        <v>175</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>335</v>
+      </c>
+      <c r="F9" s="3">
+        <v>175</v>
+      </c>
+      <c r="G9" s="3">
+        <v>100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="I9" s="3">
+        <v>-2.04</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>334.9</v>
+      </c>
+      <c r="N9" s="3">
+        <v>175</v>
+      </c>
+      <c r="O9" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3">
+        <v>-25</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-175</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>335</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-175</v>
+      </c>
+      <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-2.04</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>334.9</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-175</v>
+      </c>
+      <c r="O10" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>53</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>64</v>
+      </c>
+      <c r="B12" s="3">
+        <v>-175</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-175</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>185</v>
+      </c>
+      <c r="F12" s="3">
+        <v>175</v>
+      </c>
+      <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>-0.08</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-2.23</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1.46</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>184.9</v>
+      </c>
+      <c r="N12" s="3">
+        <v>174</v>
+      </c>
+      <c r="O12" s="3">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB565AE-13CD-0640-BA57-0044457625A5}">
   <dimension ref="B3:O22"/>
   <sheetViews>
